--- a/biology/Médecine/2007_en_santé_et_médecine/2007_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/2007_en_santé_et_médecine/2007_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2007_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2007_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2007 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2007_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2007_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>16 juillet : incident grave à la centrale nucléaire de Kashiwazaki-Kariwa au Japon à la suite d'un tremblement de terre.
-Selon l’ONUSIDA, 33,6 millions de personnes vivent avec le VIH/SIDA dans le monde à la fin 2007 (30,8 millions d'adultes, 2,5 millions d'enfants de moins de 15 ans)[1].
-Découverte en Grande-Bretagne de 3 lots contrefaits de Zyprexa de présentation française[2].
+Selon l’ONUSIDA, 33,6 millions de personnes vivent avec le VIH/SIDA dans le monde à la fin 2007 (30,8 millions d'adultes, 2,5 millions d'enfants de moins de 15 ans).
+Découverte en Grande-Bretagne de 3 lots contrefaits de Zyprexa de présentation française.
 30 novembre : inauguration du Grenoble-Institut des neurosciences.</t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2007_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2007_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : Mario Capecchi, Oliver Smithies et Martin Evans.
 Prix Albert-Lasker pour la recherche médicale fondamentale : Dr Ralph Steinman (1943-2011).
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2007_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2007_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>20 février : Édouard Zarifian (né en 1941), psychiatre, universitaire et psychothérapeute français d'origine arménienne.
-15 mars : Jean Talairach (né en 1911), psychiatre et neurochirurgien français, connu pour ses contributions à la cartographie du cerveau[3],[4].
+15 mars : Jean Talairach (né en 1911), psychiatre et neurochirurgien français, connu pour ses contributions à la cartographie du cerveau,.
 28 juillet : Jean Lassner (né en 1913), médecin français d'origine autrichienne pionnier de l’anesthésie.
 26 octobre : Arthur Kornberg (né en 1918), médecin et biochimiste américain, lauréat en 1959 du prix Nobel de physiologie ou médecine avec le Dr Severo Ochoa (1905-1993) pour la découverte du mécanisme biologique de la synthèse de l'acide désoxyribonucléique (ADN).</t>
         </is>
